--- a/installer/FrfPlg/source/files/шаблон ОТК_3t_v2.xlsx
+++ b/installer/FrfPlg/source/files/шаблон ОТК_3t_v2.xlsx
@@ -16,14 +16,15 @@
   </sheets>
   <definedNames>
     <definedName name="c_bladeCount">'шаблон 3 тона'!$C$1</definedName>
+    <definedName name="c_ColCount">'шаблон 3 тона'!$C$1</definedName>
     <definedName name="c_date">'шаблон 3 тона'!$P$4</definedName>
-    <definedName name="c_Name">'шаблон 3 тона'!$R$40</definedName>
+    <definedName name="c_Name">'шаблон 3 тона'!$R$25</definedName>
     <definedName name="c_start">'шаблон 3 тона'!$A$7</definedName>
-    <definedName name="c_stop">'шаблон 3 тона'!$A$30</definedName>
-    <definedName name="c_tones">'шаблон 3 тона'!$E$38</definedName>
-    <definedName name="c_tones_fact">'шаблон 3 тона'!$H$38</definedName>
+    <definedName name="c_stop">'шаблон 3 тона'!$A$9</definedName>
+    <definedName name="c_tones">'шаблон 3 тона'!$E$23</definedName>
+    <definedName name="c_tones_fact">'шаблон 3 тона'!$H$23</definedName>
     <definedName name="c_type">'шаблон 3 тона'!$S$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'шаблон 3 тона'!$A$1:$Y$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'шаблон 3 тона'!$A$1:$Y$25</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>Лопатка №</t>
   </si>
@@ -55,12 +56,6 @@
     <t>Испытания произведены</t>
   </si>
   <si>
-    <t>апреля</t>
-  </si>
-  <si>
-    <t>2025г</t>
-  </si>
-  <si>
     <t>Вибрационные характеристики</t>
   </si>
   <si>
@@ -77,9 +72,6 @@
   </si>
   <si>
     <t>Иванов И.И.</t>
-  </si>
-  <si>
-    <t>Т-180/215-130-2</t>
   </si>
   <si>
     <t>Профиль лопатки №</t>
@@ -101,6 +93,9 @@
   </si>
   <si>
     <t>разброс частот в пер. сек</t>
+  </si>
+  <si>
+    <t>Колонок на столбец</t>
   </si>
 </sst>
 </file>
@@ -288,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -311,7 +306,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -345,61 +339,61 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -684,16 +678,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF82"/>
+  <dimension ref="A1:AF67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.5546875" customWidth="1"/>
-    <col min="2" max="4" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" customWidth="1"/>
+    <col min="3" max="4" width="6.33203125" customWidth="1"/>
     <col min="6" max="6" width="6.33203125" customWidth="1"/>
     <col min="7" max="7" width="6.109375" customWidth="1"/>
     <col min="8" max="8" width="6.33203125" customWidth="1"/>
@@ -711,9 +706,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="A1" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="24">
+        <v>4</v>
+      </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -748,36 +747,34 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="20">
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="19">
         <v>4</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="O2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
       <c r="R2" s="5"/>
-      <c r="S2" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="19"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="18"/>
       <c r="W2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="18"/>
+      <c r="X2" s="17"/>
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="1"/>
@@ -810,8 +807,8 @@
       <c r="V3" s="9"/>
       <c r="W3" s="7"/>
       <c r="X3" s="1"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
@@ -828,22 +825,15 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="34" t="s">
+      <c r="K4" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="13">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="R4" s="14" t="s">
-        <v>7</v>
-      </c>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="13"/>
+      <c r="R4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
@@ -857,57 +847,57 @@
       <c r="AD4" s="1"/>
     </row>
     <row r="5" spans="1:32" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31" t="s">
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31" t="s">
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="J5" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31" t="s">
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="N5" s="31" t="s">
+      <c r="N5" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31" t="s">
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="R5" s="31" t="s">
+      <c r="R5" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31" t="s">
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="V5" s="31" t="s">
+      <c r="V5" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="2">
         <v>1</v>
       </c>
@@ -917,7 +907,7 @@
       <c r="D6" s="2">
         <v>3</v>
       </c>
-      <c r="E6" s="31"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="2">
         <v>1</v>
       </c>
@@ -927,7 +917,7 @@
       <c r="H6" s="2">
         <v>3</v>
       </c>
-      <c r="I6" s="31"/>
+      <c r="I6" s="45"/>
       <c r="J6" s="2">
         <v>1</v>
       </c>
@@ -937,7 +927,7 @@
       <c r="L6" s="2">
         <v>3</v>
       </c>
-      <c r="M6" s="31"/>
+      <c r="M6" s="45"/>
       <c r="N6" s="2">
         <v>1</v>
       </c>
@@ -947,7 +937,7 @@
       <c r="P6" s="2">
         <v>3</v>
       </c>
-      <c r="Q6" s="31"/>
+      <c r="Q6" s="45"/>
       <c r="R6" s="2">
         <v>1</v>
       </c>
@@ -957,639 +947,749 @@
       <c r="T6" s="2">
         <v>3</v>
       </c>
-      <c r="U6" s="31"/>
-      <c r="V6" s="16">
+      <c r="U6" s="45"/>
+      <c r="V6" s="15">
         <v>1</v>
       </c>
-      <c r="W6" s="16">
+      <c r="W6" s="15">
         <v>2</v>
       </c>
-      <c r="X6" s="16">
+      <c r="X6" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="24"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="24"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="24"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="24"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="24"/>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="24"/>
-      <c r="X20" s="24"/>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="46"/>
+      <c r="X18" s="46"/>
+      <c r="Y18" s="46"/>
+      <c r="Z18" s="46"/>
+      <c r="AA18" s="46"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+    </row>
+    <row r="19" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="37"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="L19" s="33"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+    </row>
+    <row r="20" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+    </row>
+    <row r="21" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="24"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="1"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="24"/>
-      <c r="X23" s="24"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="24"/>
-      <c r="X24" s="24"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="24"/>
-      <c r="X25" s="24"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="24"/>
-      <c r="W26" s="24"/>
-      <c r="X26" s="24"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="24"/>
-      <c r="W27" s="24"/>
-      <c r="X27" s="24"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="24"/>
-      <c r="W28" s="24"/>
-      <c r="X28" s="24"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="24"/>
-      <c r="U29" s="24"/>
-      <c r="V29" s="24"/>
-      <c r="W29" s="24"/>
-      <c r="X29" s="24"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A30" s="25"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="24"/>
-      <c r="U30" s="24"/>
-      <c r="V30" s="24"/>
-      <c r="W30" s="24"/>
-      <c r="X30" s="24"/>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
@@ -1662,15 +1762,13 @@
     <row r="33" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -1678,247 +1776,260 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
-      <c r="Q33" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="R33" s="32"/>
-      <c r="S33" s="32"/>
-      <c r="T33" s="32"/>
-      <c r="U33" s="32"/>
-      <c r="V33" s="32"/>
-      <c r="W33" s="32"/>
-      <c r="X33" s="32"/>
-      <c r="Y33" s="32"/>
-      <c r="Z33" s="32"/>
-      <c r="AA33" s="32"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
-    </row>
-    <row r="34" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="I34" s="42"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="L34" s="38"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
       <c r="M34" s="1"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
-      <c r="W34" s="6"/>
-      <c r="X34" s="6"/>
-      <c r="Y34" s="8"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
-    </row>
-    <row r="35" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="46"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="38"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
       <c r="M35" s="1"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
-      <c r="W35" s="6"/>
-      <c r="X35" s="6"/>
-      <c r="Y35" s="8"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
-    </row>
-    <row r="36" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="B36" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
       <c r="M36" s="1"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="8"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="B37" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
       <c r="M37" s="1"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="11"/>
-      <c r="T37" s="11"/>
-      <c r="U37" s="11"/>
-      <c r="V37" s="11"/>
-      <c r="W37" s="11"/>
-      <c r="X37" s="11"/>
-      <c r="Y37" s="8"/>
-      <c r="Z37" s="8"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
-      <c r="B38" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
       <c r="M38" s="1"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11"/>
-      <c r="U38" s="11"/>
-      <c r="V38" s="11"/>
-      <c r="W38" s="11"/>
-      <c r="X38" s="11"/>
-      <c r="Y38" s="8"/>
-      <c r="Z38" s="8"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
-      <c r="B39" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
       <c r="M39" s="1"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="12"/>
-      <c r="S39" s="12"/>
-      <c r="T39" s="12"/>
-      <c r="U39" s="12"/>
-      <c r="V39" s="12"/>
-      <c r="W39" s="12"/>
-      <c r="X39" s="12"/>
-      <c r="Y39" s="8"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
       <c r="M40" s="1"/>
-      <c r="N40" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="O40" s="36"/>
-      <c r="P40" s="36"/>
-      <c r="Q40" s="36"/>
-      <c r="R40" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="S40" s="8"/>
-      <c r="T40" s="8"/>
-      <c r="U40" s="8"/>
-      <c r="V40" s="8"/>
-      <c r="W40" s="8"/>
-      <c r="X40" s="8"/>
-      <c r="Y40" s="8"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
@@ -1940,17 +2051,17 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
-      <c r="T41" s="8"/>
-      <c r="U41" s="8"/>
-      <c r="V41" s="8"/>
-      <c r="W41" s="8"/>
-      <c r="X41" s="8"/>
-      <c r="Y41" s="8"/>
-      <c r="Z41" s="8"/>
-      <c r="AA41" s="8"/>
-      <c r="AB41" s="8"/>
-      <c r="AC41" s="8"/>
-      <c r="AD41" s="8"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
       <c r="AE41" s="1"/>
       <c r="AF41" s="1"/>
     </row>
@@ -2838,532 +2949,19 @@
       <c r="AE67" s="1"/>
       <c r="AF67" s="1"/>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
-      <c r="Q68" s="1"/>
-      <c r="R68" s="1"/>
-      <c r="S68" s="1"/>
-      <c r="T68" s="1"/>
-      <c r="U68" s="1"/>
-      <c r="V68" s="1"/>
-      <c r="W68" s="1"/>
-      <c r="X68" s="1"/>
-      <c r="Y68" s="1"/>
-      <c r="Z68" s="1"/>
-      <c r="AA68" s="1"/>
-      <c r="AB68" s="1"/>
-      <c r="AC68" s="1"/>
-      <c r="AD68" s="1"/>
-      <c r="AE68" s="1"/>
-      <c r="AF68" s="1"/>
-    </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="1"/>
-      <c r="R69" s="1"/>
-      <c r="S69" s="1"/>
-      <c r="T69" s="1"/>
-      <c r="U69" s="1"/>
-      <c r="V69" s="1"/>
-      <c r="W69" s="1"/>
-      <c r="X69" s="1"/>
-      <c r="Y69" s="1"/>
-      <c r="Z69" s="1"/>
-      <c r="AA69" s="1"/>
-      <c r="AB69" s="1"/>
-      <c r="AC69" s="1"/>
-      <c r="AD69" s="1"/>
-      <c r="AE69" s="1"/>
-      <c r="AF69" s="1"/>
-    </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
-      <c r="Q70" s="1"/>
-      <c r="R70" s="1"/>
-      <c r="S70" s="1"/>
-      <c r="T70" s="1"/>
-      <c r="U70" s="1"/>
-      <c r="V70" s="1"/>
-      <c r="W70" s="1"/>
-      <c r="X70" s="1"/>
-      <c r="Y70" s="1"/>
-      <c r="Z70" s="1"/>
-      <c r="AA70" s="1"/>
-      <c r="AB70" s="1"/>
-      <c r="AC70" s="1"/>
-      <c r="AD70" s="1"/>
-      <c r="AE70" s="1"/>
-      <c r="AF70" s="1"/>
-    </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
-      <c r="Q71" s="1"/>
-      <c r="R71" s="1"/>
-      <c r="S71" s="1"/>
-      <c r="T71" s="1"/>
-      <c r="U71" s="1"/>
-      <c r="V71" s="1"/>
-      <c r="W71" s="1"/>
-      <c r="X71" s="1"/>
-      <c r="Y71" s="1"/>
-      <c r="Z71" s="1"/>
-      <c r="AA71" s="1"/>
-      <c r="AB71" s="1"/>
-      <c r="AC71" s="1"/>
-      <c r="AD71" s="1"/>
-      <c r="AE71" s="1"/>
-      <c r="AF71" s="1"/>
-    </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
-      <c r="Q72" s="1"/>
-      <c r="R72" s="1"/>
-      <c r="S72" s="1"/>
-      <c r="T72" s="1"/>
-      <c r="U72" s="1"/>
-      <c r="V72" s="1"/>
-      <c r="W72" s="1"/>
-      <c r="X72" s="1"/>
-      <c r="Y72" s="1"/>
-      <c r="Z72" s="1"/>
-      <c r="AA72" s="1"/>
-      <c r="AB72" s="1"/>
-      <c r="AC72" s="1"/>
-      <c r="AD72" s="1"/>
-      <c r="AE72" s="1"/>
-      <c r="AF72" s="1"/>
-    </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
-      <c r="R73" s="1"/>
-      <c r="S73" s="1"/>
-      <c r="T73" s="1"/>
-      <c r="U73" s="1"/>
-      <c r="V73" s="1"/>
-      <c r="W73" s="1"/>
-      <c r="X73" s="1"/>
-      <c r="Y73" s="1"/>
-      <c r="Z73" s="1"/>
-      <c r="AA73" s="1"/>
-      <c r="AB73" s="1"/>
-      <c r="AC73" s="1"/>
-      <c r="AD73" s="1"/>
-      <c r="AE73" s="1"/>
-      <c r="AF73" s="1"/>
-    </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
-      <c r="R74" s="1"/>
-      <c r="S74" s="1"/>
-      <c r="T74" s="1"/>
-      <c r="U74" s="1"/>
-      <c r="V74" s="1"/>
-      <c r="W74" s="1"/>
-      <c r="X74" s="1"/>
-      <c r="Y74" s="1"/>
-      <c r="Z74" s="1"/>
-      <c r="AA74" s="1"/>
-      <c r="AB74" s="1"/>
-      <c r="AC74" s="1"/>
-      <c r="AD74" s="1"/>
-      <c r="AE74" s="1"/>
-      <c r="AF74" s="1"/>
-    </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
-      <c r="Q75" s="1"/>
-      <c r="R75" s="1"/>
-      <c r="S75" s="1"/>
-      <c r="T75" s="1"/>
-      <c r="U75" s="1"/>
-      <c r="V75" s="1"/>
-      <c r="W75" s="1"/>
-      <c r="X75" s="1"/>
-      <c r="Y75" s="1"/>
-      <c r="Z75" s="1"/>
-      <c r="AA75" s="1"/>
-      <c r="AB75" s="1"/>
-      <c r="AC75" s="1"/>
-      <c r="AD75" s="1"/>
-      <c r="AE75" s="1"/>
-      <c r="AF75" s="1"/>
-    </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
-      <c r="Q76" s="1"/>
-      <c r="R76" s="1"/>
-      <c r="S76" s="1"/>
-      <c r="T76" s="1"/>
-      <c r="U76" s="1"/>
-      <c r="V76" s="1"/>
-      <c r="W76" s="1"/>
-      <c r="X76" s="1"/>
-      <c r="Y76" s="1"/>
-      <c r="Z76" s="1"/>
-      <c r="AA76" s="1"/>
-      <c r="AB76" s="1"/>
-      <c r="AC76" s="1"/>
-      <c r="AD76" s="1"/>
-      <c r="AE76" s="1"/>
-      <c r="AF76" s="1"/>
-    </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
-      <c r="R77" s="1"/>
-      <c r="S77" s="1"/>
-      <c r="T77" s="1"/>
-      <c r="U77" s="1"/>
-      <c r="V77" s="1"/>
-      <c r="W77" s="1"/>
-      <c r="X77" s="1"/>
-      <c r="Y77" s="1"/>
-      <c r="Z77" s="1"/>
-      <c r="AA77" s="1"/>
-      <c r="AB77" s="1"/>
-      <c r="AC77" s="1"/>
-      <c r="AD77" s="1"/>
-      <c r="AE77" s="1"/>
-      <c r="AF77" s="1"/>
-    </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
-      <c r="P78" s="1"/>
-      <c r="Q78" s="1"/>
-      <c r="R78" s="1"/>
-      <c r="S78" s="1"/>
-      <c r="T78" s="1"/>
-      <c r="U78" s="1"/>
-      <c r="V78" s="1"/>
-      <c r="W78" s="1"/>
-      <c r="X78" s="1"/>
-      <c r="Y78" s="1"/>
-      <c r="Z78" s="1"/>
-      <c r="AA78" s="1"/>
-      <c r="AB78" s="1"/>
-      <c r="AC78" s="1"/>
-      <c r="AD78" s="1"/>
-      <c r="AE78" s="1"/>
-      <c r="AF78" s="1"/>
-    </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
-      <c r="N79" s="1"/>
-      <c r="O79" s="1"/>
-      <c r="P79" s="1"/>
-      <c r="Q79" s="1"/>
-      <c r="R79" s="1"/>
-      <c r="S79" s="1"/>
-      <c r="T79" s="1"/>
-      <c r="U79" s="1"/>
-      <c r="V79" s="1"/>
-      <c r="W79" s="1"/>
-      <c r="X79" s="1"/>
-      <c r="Y79" s="1"/>
-      <c r="Z79" s="1"/>
-      <c r="AA79" s="1"/>
-      <c r="AB79" s="1"/>
-      <c r="AC79" s="1"/>
-      <c r="AD79" s="1"/>
-      <c r="AE79" s="1"/>
-      <c r="AF79" s="1"/>
-    </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
-      <c r="N80" s="1"/>
-      <c r="O80" s="1"/>
-      <c r="P80" s="1"/>
-      <c r="Q80" s="1"/>
-      <c r="R80" s="1"/>
-      <c r="S80" s="1"/>
-      <c r="T80" s="1"/>
-      <c r="U80" s="1"/>
-      <c r="V80" s="1"/>
-      <c r="W80" s="1"/>
-      <c r="X80" s="1"/>
-      <c r="Y80" s="1"/>
-      <c r="Z80" s="1"/>
-      <c r="AA80" s="1"/>
-      <c r="AB80" s="1"/>
-      <c r="AC80" s="1"/>
-      <c r="AD80" s="1"/>
-      <c r="AE80" s="1"/>
-      <c r="AF80" s="1"/>
-    </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
-      <c r="N81" s="1"/>
-      <c r="O81" s="1"/>
-      <c r="P81" s="1"/>
-      <c r="Q81" s="1"/>
-      <c r="R81" s="1"/>
-      <c r="S81" s="1"/>
-      <c r="T81" s="1"/>
-      <c r="U81" s="1"/>
-      <c r="V81" s="1"/>
-      <c r="W81" s="1"/>
-      <c r="X81" s="1"/>
-      <c r="Y81" s="1"/>
-      <c r="Z81" s="1"/>
-      <c r="AA81" s="1"/>
-      <c r="AB81" s="1"/>
-      <c r="AC81" s="1"/>
-      <c r="AD81" s="1"/>
-      <c r="AE81" s="1"/>
-      <c r="AF81" s="1"/>
-    </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
-      <c r="M82" s="1"/>
-      <c r="N82" s="1"/>
-      <c r="O82" s="1"/>
-      <c r="P82" s="1"/>
-      <c r="Q82" s="1"/>
-      <c r="R82" s="1"/>
-      <c r="S82" s="1"/>
-      <c r="T82" s="1"/>
-      <c r="U82" s="1"/>
-      <c r="V82" s="1"/>
-      <c r="W82" s="1"/>
-      <c r="X82" s="1"/>
-      <c r="Y82" s="1"/>
-      <c r="Z82" s="1"/>
-      <c r="AA82" s="1"/>
-      <c r="AB82" s="1"/>
-      <c r="AC82" s="1"/>
-      <c r="AD82" s="1"/>
-      <c r="AE82" s="1"/>
-      <c r="AF82" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="N40:Q40"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E34:G37"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="K34:L37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="H34:J37"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="Q18:AA18"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="K4:N4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:H5"/>
@@ -3371,19 +2969,22 @@
     <mergeCell ref="N5:P5"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="I5:I6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="C33:I33"/>
-    <mergeCell ref="Q33:AA33"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E19:G22"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="K19:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="H19:J22"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.35433070866141736" bottom="0.15748031496062992" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="77" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="75" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>